--- a/extra_addons/customaddons-main/gps_cuentas_analiticas/reports/reporte_asientos_cuentas_analiticas.xlsx
+++ b/extra_addons/customaddons-main/gps_cuentas_analiticas/reports/reporte_asientos_cuentas_analiticas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\digit\Documents\Odoo\Odoo16\extra_addons\customaddons-main\gps_cuentas_analiticas\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Operador\Documents\Odoo16\addons\customaddons-main\gps_cuentas_analiticas\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A5240D-42EF-46DC-A804-53CCF5586001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826BD263-37AA-4C69-AC0A-1187DF994CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t># LINEAS:</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>%</t>
+  </si>
+  <si>
+    <t># Identificacion</t>
+  </si>
+  <si>
+    <t>Contacto</t>
   </si>
 </sst>
 </file>
@@ -219,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -235,12 +241,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -250,7 +250,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -266,6 +265,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -284,9 +295,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -324,7 +335,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -430,7 +441,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -572,7 +583,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -580,57 +591,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{237F89F6-39CE-43EB-B6D2-F38E5DE09C3A}">
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="21.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="21.33203125" style="5"/>
-    <col min="3" max="4" width="21.33203125" style="7"/>
-    <col min="5" max="5" width="21.33203125" style="8"/>
-    <col min="6" max="7" width="21.33203125" style="4"/>
-    <col min="8" max="8" width="21.33203125" style="12"/>
-    <col min="9" max="16384" width="21.33203125" style="5"/>
+    <col min="1" max="2" width="21.33203125" style="15"/>
+    <col min="3" max="4" width="21.33203125" style="16"/>
+    <col min="5" max="5" width="21.33203125" style="17"/>
+    <col min="6" max="7" width="21.33203125" style="18"/>
+    <col min="8" max="8" width="21.33203125" style="19"/>
+    <col min="9" max="16384" width="21.33203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="29.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="14"/>
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="1:24" s="20" customFormat="1" ht="29.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="11"/>
+      <c r="B1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="10"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
     </row>
-    <row r="3" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -639,74 +674,98 @@
         <v>0</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="9"/>
-      <c r="H3" s="13"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
     </row>
-    <row r="4" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="I4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="J4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="K4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="L4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="M4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="N4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="O4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="P4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="Q4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="R4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="16" t="s">
+      <c r="S4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="T4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="U4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="V4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="U4" s="11" t="s">
+      <c r="W4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="V4" s="11" t="s">
+      <c r="X4" s="9" t="s">
         <v>24</v>
       </c>
     </row>
